--- a/docs_markdown/benchmark.xlsx
+++ b/docs_markdown/benchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="40000" yWindow="-660" windowWidth="25600" windowHeight="16060" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="iPhone 7" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="iPhone 5" sheetId="4" r:id="rId4"/>
     <sheet name="Comparison" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1049,15 +1049,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:strRef>
-              <c:f>flexlayout</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>flexlayout</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>FlexLayout/Yoga</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28800">
@@ -1206,11 +1198,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2064664984"/>
-        <c:axId val="-2065440696"/>
+        <c:axId val="-2116475736"/>
+        <c:axId val="-2123233720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2064664984"/>
+        <c:axId val="-2116475736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065440696"/>
+        <c:crossAx val="-2123233720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1302,7 +1294,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065440696"/>
+        <c:axId val="-2123233720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064664984"/>
+        <c:crossAx val="-2116475736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2225,11 +2217,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2056008776"/>
-        <c:axId val="-2055507256"/>
+        <c:axId val="-2114029672"/>
+        <c:axId val="-2060086280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2056008776"/>
+        <c:axId val="-2114029672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,7 +2305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055507256"/>
+        <c:crossAx val="-2060086280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2321,7 +2313,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2055507256"/>
+        <c:axId val="-2060086280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,7 +2372,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00912179164569701"/>
+              <c:x val="0.009121791645697"/>
               <c:y val="0.395347883163768"/>
             </c:manualLayout>
           </c:layout>
@@ -2418,7 +2410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056008776"/>
+        <c:crossAx val="-2114029672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3231,15 +3223,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:strRef>
-              <c:f>flexlayout</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>flexlayout</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>FlexLayout/Yoga</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28800">
@@ -3388,11 +3372,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2055403784"/>
-        <c:axId val="-2055573960"/>
+        <c:axId val="-2059732104"/>
+        <c:axId val="-2059726024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2055403784"/>
+        <c:axId val="-2059732104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3476,7 +3460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055573960"/>
+        <c:crossAx val="-2059726024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3484,7 +3468,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2055573960"/>
+        <c:axId val="-2059726024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,7 +3565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055403784"/>
+        <c:crossAx val="-2059732104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4394,15 +4378,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:strRef>
-              <c:f>flexlayout</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>flexlayout</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>FlexLayout/Yoga</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28800">
@@ -4551,11 +4527,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2061390024"/>
-        <c:axId val="-2061383944"/>
+        <c:axId val="-2120010088"/>
+        <c:axId val="-2060990936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2061390024"/>
+        <c:axId val="-2120010088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4639,7 +4615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061383944"/>
+        <c:crossAx val="-2060990936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4647,7 +4623,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061383944"/>
+        <c:axId val="-2060990936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4744,7 +4720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061390024"/>
+        <c:crossAx val="-2120010088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5309,11 +5285,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2055482856"/>
-        <c:axId val="-2055476872"/>
+        <c:axId val="-2060891512"/>
+        <c:axId val="-2060885528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2055482856"/>
+        <c:axId val="-2060891512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5397,7 +5373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055476872"/>
+        <c:crossAx val="-2060885528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5405,7 +5381,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2055476872"/>
+        <c:axId val="-2060885528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5502,7 +5478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055482856"/>
+        <c:crossAx val="-2060891512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6057,7 +6033,7 @@
   <dimension ref="A52:L146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8823,7 +8799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A52:I130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
@@ -13652,8 +13628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A52:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/docs_markdown/benchmark.xlsx
+++ b/docs_markdown/benchmark.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="28020" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="42620" yWindow="-5720" windowWidth="35240" windowHeight="17260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="iPhone7" sheetId="1" r:id="rId1"/>
     <sheet name="iPhone6S" sheetId="4" r:id="rId2"/>
+    <sheet name="iPhone6" sheetId="6" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -23,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="16">
   <si>
     <t>ops/s</t>
   </si>
@@ -53,6 +51,24 @@
   </si>
   <si>
     <t>UIStackView UICollectionView feed</t>
+  </si>
+  <si>
+    <t>Auto Layout</t>
+  </si>
+  <si>
+    <t>FlexLayout</t>
+  </si>
+  <si>
+    <t>LayoutKit</t>
+  </si>
+  <si>
+    <t>Manual Layout</t>
+  </si>
+  <si>
+    <t>PinLayout</t>
+  </si>
+  <si>
+    <t>UIStackView</t>
   </si>
 </sst>
 </file>
@@ -101,8 +117,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -115,15 +133,17 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -280,34 +300,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.033</c:v>
+                  <c:v>0.034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.054</c:v>
+                  <c:v>0.056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.078</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.101</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.124</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.148</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.171</c:v>
+                  <c:v>0.182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.195</c:v>
+                  <c:v>0.205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.216</c:v>
+                  <c:v>0.228</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.242</c:v>
+                  <c:v>0.244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -330,34 +350,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.004</c:v>
+                  <c:v>0.007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.005</c:v>
+                  <c:v>0.009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.005</c:v>
+                  <c:v>0.012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.006</c:v>
+                  <c:v>0.014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.006</c:v>
+                  <c:v>0.016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.006</c:v>
+                  <c:v>0.018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.007</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.007</c:v>
+                  <c:v>0.023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.008</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.008</c:v>
+                  <c:v>0.028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -389,7 +409,7 @@
                   <c:v>0.011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.013</c:v>
+                  <c:v>0.014</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.016</c:v>
@@ -398,7 +418,7 @@
                   <c:v>0.018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.023</c:v>
@@ -483,7 +503,7 @@
                   <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.006</c:v>
+                  <c:v>0.007</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.008</c:v>
@@ -492,7 +512,7 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.011</c:v>
+                  <c:v>0.012</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.013</c:v>
@@ -501,7 +521,7 @@
                   <c:v>0.015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.016</c:v>
+                  <c:v>0.017</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.018</c:v>
@@ -533,31 +553,31 @@
                   <c:v>0.055</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.089</c:v>
+                  <c:v>0.082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.134</c:v>
+                  <c:v>0.113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.163</c:v>
+                  <c:v>0.146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.199</c:v>
+                  <c:v>0.184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.226</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.259</c:v>
+                  <c:v>0.246</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.293</c:v>
+                  <c:v>0.273</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.319</c:v>
+                  <c:v>0.302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35</c:v>
+                  <c:v>0.331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,11 +601,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2078993400"/>
-        <c:axId val="-2078564008"/>
+        <c:axId val="-2075706664"/>
+        <c:axId val="-2075815528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2078993400"/>
+        <c:axId val="-2075706664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078564008"/>
+        <c:crossAx val="-2075815528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -677,7 +697,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078564008"/>
+        <c:axId val="-2075815528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -774,7 +794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078993400"/>
+        <c:crossAx val="-2075706664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -926,9 +946,9 @@
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>iPhone6S!#REF!</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1238,11 +1258,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2077045352"/>
-        <c:axId val="-2077203496"/>
+        <c:axId val="-2092467032"/>
+        <c:axId val="-2092409448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2077045352"/>
+        <c:axId val="-2092467032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077203496"/>
+        <c:crossAx val="-2092409448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1334,7 +1354,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077203496"/>
+        <c:axId val="-2092409448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1451,664 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077045352"/>
+        <c:crossAx val="-2092467032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="558ED5"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="31859C"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>iPhone 6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44048476549127"/>
+          <c:y val="0.00668682216609716"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.158151325046147"/>
+          <c:y val="0.0958280346228002"/>
+          <c:w val="0.665448007159853"/>
+          <c:h val="0.765352586454445"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Auto layout</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47520">
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>iPhone6S!#REF!</c:f>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6!$C$1:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.362</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FlexLayout/Yoga</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6!$C$11:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.054</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LayoutKit</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6!$C$21:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Manual layout</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6!$C$31:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>PinLayout</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6!$C$41:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.042</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.051</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>UIStackView</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6!$C$51:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2077184440"/>
+        <c:axId val="-2076865608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2077184440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Number of Cells in a UICollectionView </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.331193436257163"/>
+              <c:y val="0.911679041719654"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2076865608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2076865608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Time to 
+render 
+all cells
+(seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00914414555475527"/>
+              <c:y val="0.395331665094146"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2077184440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1553,521 +2230,41 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="iPhone 7"/>
-      <sheetName val="iPhone 6S"/>
-      <sheetName val="iPhone 6"/>
-      <sheetName val="iPhone 5"/>
-      <sheetName val="Comparison"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="52">
-          <cell r="C52">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="G52">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="G53">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>3.1E-2</v>
-          </cell>
-          <cell r="G54">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>3.3000000000000002E-2</v>
-          </cell>
-          <cell r="G55">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>3.6999999999999998E-2</v>
-          </cell>
-          <cell r="G56">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>4.2999999999999997E-2</v>
-          </cell>
-          <cell r="G57">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>4.5999999999999999E-2</v>
-          </cell>
-          <cell r="G58">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>4.5999999999999999E-2</v>
-          </cell>
-          <cell r="G59">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>4.8000000000000001E-2</v>
-          </cell>
-          <cell r="G60">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>4.9000000000000002E-2</v>
-          </cell>
-          <cell r="G61">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>7.8E-2</v>
-          </cell>
-          <cell r="G62">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>0.109</v>
-          </cell>
-          <cell r="G63">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>0.13800000000000001</v>
-          </cell>
-          <cell r="G64">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>0.16900000000000001</v>
-          </cell>
-          <cell r="G65">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>0.317</v>
-          </cell>
-          <cell r="G66">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>1.4E-2</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>1.6E-2</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>2.3E-2</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>2.5000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>2.7E-2</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>2.9000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>3.1E-2</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>5.3999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>7.8E-2</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>0.11</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>0.13800000000000001</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>0.29299999999999998</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95">
-            <v>1.2E-2</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96">
-            <v>1.4E-2</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97">
-            <v>1.6E-2</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>2.8000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100">
-            <v>2E-3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="C102">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="C103">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="C104">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="C105">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="C106">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="C107">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="C108">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="C109">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="C110">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="C111">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="C112">
-            <v>1.0999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="C113">
-            <v>1.2E-2</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="C114">
-            <v>1.6E-2</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="C116">
-            <v>2E-3</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="C117">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="C118">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="C119">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="C120">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="C121">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="C122">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="C123">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="C124">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="C125">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="C126">
-            <v>7.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="C127">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="C128">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="C129">
-            <v>1.2E-2</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="C130">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="C132">
-            <v>2E-3</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="C133">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="C134">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="C135">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="C136">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="C137">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="C138">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="C139">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="C140">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="C141">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="C142">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="C143">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="C144">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="C145">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="C146">
-            <v>8.0000000000000002E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2394,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2408,13 +2605,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1">
-        <v>29.88</v>
+        <v>29.08</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>3.3000000000000002E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2432,24 +2629,24 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>18.440000000000001</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.3999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2461,18 +2658,18 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>12.79</v>
+        <v>12.52</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.8E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -2490,18 +2687,18 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>9.89</v>
+        <v>9.65</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.10100000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -2519,24 +2716,24 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>8.0299999999999994</v>
+        <v>7.9</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.124</v>
+        <v>0.127</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -2548,18 +2745,18 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>6.78</v>
+        <v>6.42</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.14799999999999999</v>
+        <v>0.156</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -2577,18 +2774,18 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>5.86</v>
+        <v>5.48</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.17100000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -2606,24 +2803,24 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>5.14</v>
+        <v>4.87</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.19500000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -2635,18 +2832,18 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>4.63</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.216</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -2664,18 +2861,18 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>4.13</v>
+        <v>4.09</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.24199999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -2693,24 +2890,24 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>224.54</v>
+        <v>144.36000000000001</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -2722,24 +2919,24 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>215.07</v>
+        <v>109.28</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -2751,24 +2948,24 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>197.08</v>
+        <v>86.3</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
@@ -2780,24 +2977,24 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>181.64</v>
+        <v>73.38</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
@@ -2809,24 +3006,24 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>167.93</v>
+        <v>63.89</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -2838,24 +3035,24 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>157.41999999999999</v>
+        <v>55.24</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.0000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
@@ -2867,24 +3064,24 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>146.26</v>
+        <v>48.91</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -2896,24 +3093,24 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>134.1</v>
+        <v>43.91</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -2925,24 +3122,24 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>123.41</v>
+        <v>39.51</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.0000000000000002E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -2954,24 +3151,24 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>120.39</v>
+        <v>36.35</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.0000000000000002E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
@@ -2983,12 +3180,12 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>141.44999999999999</v>
+        <v>141.94999999999999</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -3012,12 +3209,12 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>114.68</v>
+        <v>110.93</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -3029,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
         <v>2</v>
@@ -3041,12 +3238,12 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>90.29</v>
+        <v>88.45</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -3058,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
         <v>2</v>
@@ -3070,24 +3267,24 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>74.64</v>
+        <v>73.290000000000006</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
         <v>2</v>
@@ -3099,12 +3296,12 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>63.57</v>
+        <v>61.99</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -3116,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
         <v>2</v>
@@ -3128,12 +3325,12 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>54.99</v>
+        <v>54.17</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -3157,24 +3354,24 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>49.04</v>
+        <v>48.09</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.02</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
         <v>2</v>
@@ -3186,12 +3383,12 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>43.98</v>
+        <v>43.26</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -3215,12 +3412,12 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>39.54</v>
+        <v>39.229999999999997</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -3244,12 +3441,12 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>36.21</v>
+        <v>35.89</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -3261,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
         <v>2</v>
@@ -3273,12 +3470,12 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>173.08</v>
+        <v>172.4</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -3290,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F31" t="s">
         <v>2</v>
@@ -3302,12 +3499,12 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>136.55000000000001</v>
+        <v>135.86000000000001</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -3319,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32" t="s">
         <v>2</v>
@@ -3331,12 +3528,12 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>108.7</v>
+        <v>106.66</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -3348,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F33" t="s">
         <v>2</v>
@@ -3360,12 +3557,12 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>89.85</v>
+        <v>88.38</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -3377,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
         <v>2</v>
@@ -3389,12 +3586,12 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>76.69</v>
+        <v>75.3</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -3406,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
         <v>2</v>
@@ -3418,12 +3615,12 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>66.790000000000006</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -3435,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
         <v>2</v>
@@ -3447,12 +3644,12 @@
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>59.35</v>
+        <v>57.98</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -3464,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
         <v>2</v>
@@ -3476,12 +3673,12 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>53.38</v>
+        <v>52.44</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -3493,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
         <v>2</v>
@@ -3505,12 +3702,12 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>48.55</v>
+        <v>47.87</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -3522,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
         <v>2</v>
@@ -3534,12 +3731,12 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>44.31</v>
+        <v>43.79</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -3551,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
         <v>2</v>
@@ -3563,12 +3760,12 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>190.13</v>
+        <v>187.71</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -3580,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F41" t="s">
         <v>2</v>
@@ -3592,24 +3789,24 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>154.08000000000001</v>
+        <v>153.27000000000001</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
         <v>2</v>
@@ -3621,12 +3818,12 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>122.92</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -3638,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s">
         <v>2</v>
@@ -3650,12 +3847,12 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>102.49</v>
+        <v>100.43</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -3667,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
         <v>2</v>
@@ -3679,24 +3876,24 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>87.86</v>
+        <v>85.81</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
         <v>2</v>
@@ -3708,12 +3905,12 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>76.290000000000006</v>
+        <v>75.09</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -3725,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s">
         <v>2</v>
@@ -3737,12 +3934,12 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>68.11</v>
+        <v>66.77</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -3754,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
         <v>2</v>
@@ -3766,24 +3963,24 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>61.41</v>
+        <v>59.95</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1.6E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F48" t="s">
         <v>2</v>
@@ -3795,12 +3992,12 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>55.75</v>
+        <v>54.26</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -3812,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s">
         <v>2</v>
@@ -3824,12 +4021,12 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>50.99</v>
+        <v>50.4</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -3853,12 +4050,12 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>18.21</v>
+        <v>18.32</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -3882,24 +4079,24 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>11.2</v>
+        <v>12.15</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>8.8999999999999996E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
         <v>2</v>
@@ -3911,24 +4108,24 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>7.45</v>
+        <v>8.81</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0.13400000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
         <v>2</v>
@@ -3940,18 +4137,18 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>6.14</v>
+        <v>6.86</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0.16300000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -3969,18 +4166,18 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>5.0199999999999996</v>
+        <v>5.44</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0.19900000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -3998,18 +4195,18 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>4.42</v>
+        <v>4.63</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0.22600000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -4027,18 +4224,18 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>3.86</v>
+        <v>4.07</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.25900000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -4056,18 +4253,18 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>3.42</v>
+        <v>3.66</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0.29299999999999998</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -4085,18 +4282,18 @@
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>3.13</v>
+        <v>3.31</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0.31900000000000001</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -4114,18 +4311,18 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>2.85</v>
+        <v>3.02</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0.35</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -4143,7 +4340,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4162,7 +4359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -5924,4 +6121,1772 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1">
+        <v>11.92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>7.33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>5.12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>4.03</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.248</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3.28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>2.76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>2.39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2.11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>1.88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>1.7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>60.16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>44.88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>34.85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>28.55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>24.23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>21.03</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>18.54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>16.57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.06</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>13.52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>49.1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>30.35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>25.03</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.04</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>21.29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>18.63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>14.77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>13.33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>12.3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>59.19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>43.6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>30.42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>26.78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>23.28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>20.6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>17.07</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>15.61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>67.98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42.52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>30.56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>26.77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>60</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>23.76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>70</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>21.34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>19.52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>90</v>
+      </c>
+      <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>17.84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>7.64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>3.62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>2.84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>2.34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>1.99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0.504</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>60</v>
+      </c>
+      <c r="H56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>1.72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>1.52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>1.37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>90</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>1.24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/docs_markdown/benchmark.xlsx
+++ b/docs_markdown/benchmark.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="42620" yWindow="-5720" windowWidth="35240" windowHeight="17260" tabRatio="500"/>
+    <workbookView xWindow="40840" yWindow="-2600" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="iPhone7" sheetId="1" r:id="rId1"/>
     <sheet name="iPhone6S" sheetId="4" r:id="rId2"/>
     <sheet name="iPhone6" sheetId="6" r:id="rId3"/>
+    <sheet name="iPhone 5" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="16">
   <si>
     <t>ops/s</t>
   </si>
@@ -81,6 +82,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,11 +603,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2075706664"/>
-        <c:axId val="-2075815528"/>
+        <c:axId val="-2097334056"/>
+        <c:axId val="-2097327992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2075706664"/>
+        <c:axId val="-2097334056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -689,7 +691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075815528"/>
+        <c:crossAx val="-2097327992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -697,7 +699,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075815528"/>
+        <c:axId val="-2097327992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,7 +796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075706664"/>
+        <c:crossAx val="-2097334056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -809,7 +811,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1258,11 +1259,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2092467032"/>
-        <c:axId val="-2092409448"/>
+        <c:axId val="-2052639448"/>
+        <c:axId val="-2052633368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2092467032"/>
+        <c:axId val="-2052639448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092409448"/>
+        <c:crossAx val="-2052633368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1354,7 +1355,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092409448"/>
+        <c:axId val="-2052633368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092467032"/>
+        <c:crossAx val="-2052639448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1915,11 +1916,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2077184440"/>
-        <c:axId val="-2076865608"/>
+        <c:axId val="-2052565608"/>
+        <c:axId val="-2052559528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2077184440"/>
+        <c:axId val="-2052565608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076865608"/>
+        <c:crossAx val="-2052559528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2011,7 +2012,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2076865608"/>
+        <c:axId val="-2052559528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2109,634 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077184440"/>
+        <c:crossAx val="-2052565608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="558ED5"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="31859C"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>iPhone 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44048476549127"/>
+          <c:y val="0.00668682216609716"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.158151325046147"/>
+          <c:y val="0.0958280346228002"/>
+          <c:w val="0.665448007159853"/>
+          <c:h val="0.765352586454445"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Auto layout</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47520">
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>iPhone6S!#REF!</c:f>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'iPhone 5'!$C$1:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FlexLayout/Yoga</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'iPhone 5'!$C$11:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LayoutKit</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'iPhone 5'!$C$21:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.211</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Manual layout</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'iPhone 5'!$C$31:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.067</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>PinLayout</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'iPhone 5'!$C$41:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.078</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>UIStackView</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'iPhone 5'!$C$51:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2051556504"/>
+        <c:axId val="-2051550424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2051556504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Number of Cells in a UICollectionView </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.331193436257163"/>
+              <c:y val="0.911679041719654"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2051550424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2051550424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Time to 
+render 
+all cells
+(seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00914414555475527"/>
+              <c:y val="0.395331665094146"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2051556504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2231,6 +2859,43 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2591,7 +3256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -4359,8 +5024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6127,8 +6792,1774 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD44"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1">
+        <v>11.92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>7.33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>5.12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>4.03</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.248</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3.28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>2.76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>2.39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2.11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>1.88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>1.7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>60.16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>44.88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>34.85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>28.55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>24.23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>21.03</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>18.54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>16.57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.06</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>13.52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>49.1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>30.35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>25.03</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.04</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>21.29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>18.63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>14.77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>13.33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>12.3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>59.19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>43.6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>30.42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>26.78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>23.28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>20.6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>17.07</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>15.61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>67.98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42.52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>30.56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>26.77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>60</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>23.76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>70</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>21.34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>19.52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>90</v>
+      </c>
+      <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>17.84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>7.64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>3.62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>2.84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>2.34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>1.99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0.504</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>60</v>
+      </c>
+      <c r="H56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>1.72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>1.52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>1.37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>90</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>1.24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6141,19 +8572,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1">
-        <v>11.92</v>
+        <v>3.61</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>8.4000000000000005E-2</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -6170,19 +8601,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>7.33</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.13600000000000001</v>
+        <v>0.439</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -6199,19 +8630,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>5.12</v>
+        <v>1.72</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.19500000000000001</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -6228,13 +8659,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>4.03</v>
+        <v>1.34</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.248</v>
+        <v>0.747</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -6257,13 +8688,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>3.28</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.30499999999999999</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -6286,13 +8717,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>2.76</v>
+        <v>0.92</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.36199999999999999</v>
+        <v>1.091</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -6315,13 +8746,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>2.39</v>
+        <v>0.8</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.41899999999999998</v>
+        <v>1.2430000000000001</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -6344,13 +8775,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>2.11</v>
+        <v>0.69</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.47399999999999998</v>
+        <v>1.458</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -6373,13 +8804,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>1.88</v>
+        <v>0.64</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.53100000000000003</v>
+        <v>1.5680000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -6402,13 +8833,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>1.7</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.58799999999999997</v>
+        <v>1.718</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -6431,19 +8862,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>60.16</v>
+        <v>29.95</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.7000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -6460,19 +8891,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>44.88</v>
+        <v>21.25</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.1999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -6489,19 +8920,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>34.85</v>
+        <v>17.07</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.9000000000000001E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
@@ -6518,19 +8949,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>28.55</v>
+        <v>14.5</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.5000000000000003E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
@@ -6547,19 +8978,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>24.23</v>
+        <v>11.52</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.1000000000000002E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -6576,19 +9007,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>21.03</v>
+        <v>10.06</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.8000000000000001E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
@@ -6605,19 +9036,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>18.54</v>
+        <v>9.27</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.3999999999999999E-2</v>
+        <v>0.108</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -6634,19 +9065,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>16.57</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -6663,19 +9094,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>15</v>
+        <v>7.57</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.7000000000000004E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -6692,19 +9123,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>13.52</v>
+        <v>6.41</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.3999999999999996E-2</v>
+        <v>0.156</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
@@ -6721,19 +9152,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>49.1</v>
+        <v>20.41</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
@@ -6750,19 +9181,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>38.340000000000003</v>
+        <v>15.66</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.5999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
         <v>2</v>
@@ -6779,19 +9210,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>30.35</v>
+        <v>11.5</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.3000000000000002E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
         <v>2</v>
@@ -6808,19 +9239,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>25.03</v>
+        <v>10.27</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
         <v>2</v>
@@ -6837,19 +9268,19 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>21.29</v>
+        <v>8.98</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.7E-2</v>
+        <v>0.111</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>2</v>
@@ -6866,19 +9297,19 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>18.63</v>
+        <v>7.12</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>5.3999999999999999E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
         <v>2</v>
@@ -6895,19 +9326,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>16.170000000000002</v>
+        <v>5.37</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>6.2E-2</v>
+        <v>0.186</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
         <v>2</v>
@@ -6924,19 +9355,19 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>14.77</v>
+        <v>4.74</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>6.8000000000000005E-2</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
         <v>2</v>
@@ -6953,19 +9384,19 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>13.33</v>
+        <v>4.67</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>7.4999999999999997E-2</v>
+        <v>0.214</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
         <v>2</v>
@@ -6982,19 +9413,19 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>12.3</v>
+        <v>4.09</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>8.1000000000000003E-2</v>
+        <v>0.245</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
         <v>2</v>
@@ -7011,19 +9442,19 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>59.19</v>
+        <v>24.82</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1.7000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>2</v>
@@ -7040,19 +9471,19 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>43.6</v>
+        <v>16.03</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>2.3E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
         <v>2</v>
@@ -7069,19 +9500,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>35.229999999999997</v>
+        <v>14.92</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2.8000000000000001E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
         <v>2</v>
@@ -7098,19 +9529,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>30.42</v>
+        <v>11.72</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>3.3000000000000002E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
         <v>2</v>
@@ -7127,19 +9558,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>26.78</v>
+        <v>12.07</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>3.6999999999999998E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>2</v>
@@ -7156,19 +9587,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>23.28</v>
+        <v>10.77</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>4.2999999999999997E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
         <v>2</v>
@@ -7185,19 +9616,19 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>20.6</v>
+        <v>8.08</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>4.9000000000000002E-2</v>
+        <v>0.124</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>2</v>
@@ -7214,19 +9645,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>17.850000000000001</v>
+        <v>6.42</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>5.6000000000000001E-2</v>
+        <v>0.156</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
         <v>2</v>
@@ -7243,19 +9674,19 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>17.07</v>
+        <v>6.44</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>5.8999999999999997E-2</v>
+        <v>0.155</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
         <v>2</v>
@@ -7272,19 +9703,19 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>15.61</v>
+        <v>5.39</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>6.4000000000000001E-2</v>
+        <v>0.185</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
         <v>2</v>
@@ -7301,19 +9732,19 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>67.98</v>
+        <v>31.16</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1.4999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
         <v>2</v>
@@ -7330,19 +9761,19 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>53</v>
+        <v>23.74</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1.9E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
         <v>2</v>
@@ -7359,19 +9790,19 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>42.52</v>
+        <v>19.48</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>2.4E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
         <v>2</v>
@@ -7388,19 +9819,19 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>35.409999999999997</v>
+        <v>17.84</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2.8000000000000001E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
         <v>2</v>
@@ -7417,19 +9848,19 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>30.56</v>
+        <v>15.47</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>3.3000000000000002E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
         <v>2</v>
@@ -7446,19 +9877,19 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>26.77</v>
+        <v>12.86</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>3.6999999999999998E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>2</v>
@@ -7475,19 +9906,19 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>23.76</v>
+        <v>11.49</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>4.2000000000000003E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
         <v>2</v>
@@ -7504,19 +9935,19 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>21.34</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>4.7E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
         <v>2</v>
@@ -7533,19 +9964,19 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>19.52</v>
+        <v>8.9</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>5.0999999999999997E-2</v>
+        <v>0.112</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
         <v>2</v>
@@ -7562,19 +9993,19 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>17.84</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>5.6000000000000001E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
         <v>2</v>
@@ -7587,296 +10018,6 @@
       </c>
       <c r="I50" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
-        <v>7.64</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>10</v>
-      </c>
-      <c r="H51" t="s">
-        <v>3</v>
-      </c>
-      <c r="I51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52">
-        <v>20</v>
-      </c>
-      <c r="H52" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
-        <v>3.62</v>
-      </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
-      <c r="F53" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53">
-        <v>30</v>
-      </c>
-      <c r="H53" t="s">
-        <v>3</v>
-      </c>
-      <c r="I53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
-        <v>2.84</v>
-      </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
-      <c r="F54" t="s">
-        <v>2</v>
-      </c>
-      <c r="G54">
-        <v>40</v>
-      </c>
-      <c r="H54" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
-        <v>2.34</v>
-      </c>
-      <c r="B55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>5</v>
-      </c>
-      <c r="F55" t="s">
-        <v>2</v>
-      </c>
-      <c r="G55">
-        <v>50</v>
-      </c>
-      <c r="H55" t="s">
-        <v>3</v>
-      </c>
-      <c r="I55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
-        <v>1.99</v>
-      </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0.504</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>5</v>
-      </c>
-      <c r="F56" t="s">
-        <v>2</v>
-      </c>
-      <c r="G56">
-        <v>60</v>
-      </c>
-      <c r="H56" t="s">
-        <v>3</v>
-      </c>
-      <c r="I56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
-        <v>1.72</v>
-      </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>5</v>
-      </c>
-      <c r="F57" t="s">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <v>70</v>
-      </c>
-      <c r="H57" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
-        <v>1.52</v>
-      </c>
-      <c r="B58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>5</v>
-      </c>
-      <c r="F58" t="s">
-        <v>2</v>
-      </c>
-      <c r="G58">
-        <v>80</v>
-      </c>
-      <c r="H58" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59">
-        <v>1.37</v>
-      </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0.73</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59">
-        <v>90</v>
-      </c>
-      <c r="H59" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
-        <v>1.24</v>
-      </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>2</v>
-      </c>
-      <c r="G60">
-        <v>100</v>
-      </c>
-      <c r="H60" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs_markdown/benchmark.xlsx
+++ b/docs_markdown/benchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40840" yWindow="-2600" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="41320" yWindow="-3860" windowWidth="32820" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="iPhone7" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="16">
   <si>
     <t>ops/s</t>
   </si>
@@ -119,8 +119,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -135,17 +179,61 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -236,7 +324,7 @@
             <c:v>Auto layout</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="47520">
+            <a:ln w="31750">
               <a:solidFill>
                 <a:srgbClr val="BE4B48"/>
               </a:solidFill>
@@ -342,6 +430,9 @@
           <c:tx>
             <c:v>FlexLayout/Yoga</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -392,6 +483,9 @@
           <c:tx>
             <c:v>LayoutKit</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -442,6 +536,9 @@
           <c:tx>
             <c:v>Manual layout</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -492,6 +589,9 @@
           <c:tx>
             <c:v>PinLayout</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -542,6 +642,9 @@
           <c:tx>
             <c:v>UIStackView</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -603,11 +706,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2097334056"/>
-        <c:axId val="-2097327992"/>
+        <c:axId val="-2045874312"/>
+        <c:axId val="-2045872280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2097334056"/>
+        <c:axId val="-2045874312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097327992"/>
+        <c:crossAx val="-2045872280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -699,7 +802,681 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097327992"/>
+        <c:axId val="-2045872280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Time to 
+render 
+all cells
+(seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00914414555475527"/>
+              <c:y val="0.395331665094146"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6223">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2045874312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="558ED5"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175" cmpd="sng">
+      <a:solidFill>
+        <a:srgbClr val="31859C"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>iPhone 6S</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44048476497667"/>
+          <c:y val="0.00857365549493375"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.158151325046147"/>
+          <c:y val="0.0958280346228002"/>
+          <c:w val="0.665448007159853"/>
+          <c:h val="0.765352586454445"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Auto layout</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>iPhone6S!#REF!</c:f>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6S!$C$1:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FlexLayout/Yoga</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6S!$C$11:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LayoutKit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6S!$C$21:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.036</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Manual layout</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6S!$C$31:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.034</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>PinLayout</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6S!$C$41:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>UIStackView</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>iPhone6S!$C$51:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.447</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2046050552"/>
+        <c:axId val="-2046651816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2046050552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Number of Cells in a UICollectionView </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.331193436257163"/>
+              <c:y val="0.911679041719654"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2046651816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2046651816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,663 +1573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097334056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="558ED5"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:solidFill>
-        <a:srgbClr val="31859C"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="3200" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="3200" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>iPhone 6S</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.44048476497667"/>
-          <c:y val="0.00857365549493375"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.158151325046147"/>
-          <c:y val="0.0958280346228002"/>
-          <c:w val="0.665448007159853"/>
-          <c:h val="0.765352586454445"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Auto layout</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="47520">
-              <a:solidFill>
-                <a:srgbClr val="BE4B48"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>iPhone6S!#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>iPhone6S!$C$1:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.085</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.154</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.227</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.368</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>FlexLayout/Yoga</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>iPhone6S!$C$11:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>LayoutKit</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>iPhone6S!$C$21:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.029</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.033</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.036</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.044</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Manual layout</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>iPhone6S!$C$31:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.028</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.031</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.034</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.037</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>PinLayout</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>iPhone6S!$C$41:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.027</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.032</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>UIStackView</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>iPhone6S!$C$51:$C$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.089</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.122</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.168</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.306</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.354</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.447</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.493</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2052639448"/>
-        <c:axId val="-2052633368"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2052639448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Number of Cells in a UICollectionView </a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.331193436257163"/>
-              <c:y val="0.911679041719654"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2052633368"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2052633368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Time to 
-render 
-all cells
-(seconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00914414555475527"/>
-              <c:y val="0.395331665094146"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2052639448"/>
+        <c:crossAx val="-2046050552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1583,7 +1704,7 @@
             <c:v>Auto layout</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="47520">
+            <a:ln w="31750">
               <a:solidFill>
                 <a:srgbClr val="BE4B48"/>
               </a:solidFill>
@@ -1655,6 +1776,9 @@
           <c:tx>
             <c:v>FlexLayout/Yoga</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1705,6 +1829,9 @@
           <c:tx>
             <c:v>LayoutKit</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1755,6 +1882,9 @@
           <c:tx>
             <c:v>Manual layout</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1805,6 +1935,9 @@
           <c:tx>
             <c:v>PinLayout</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1855,6 +1988,9 @@
           <c:tx>
             <c:v>UIStackView</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1916,11 +2052,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2052565608"/>
-        <c:axId val="-2052559528"/>
+        <c:axId val="-2046546568"/>
+        <c:axId val="-2046729640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2052565608"/>
+        <c:axId val="-2046546568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,7 +2140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2052559528"/>
+        <c:crossAx val="-2046729640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2012,7 +2148,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2052559528"/>
+        <c:axId val="-2046729640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,7 +2245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2052565608"/>
+        <c:crossAx val="-2046546568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2128,7 +2264,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="28575" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="558ED5"/>
           </a:solidFill>
@@ -2240,7 +2376,7 @@
             <c:v>Auto layout</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="47520">
+            <a:ln w="31750" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="BE4B48"/>
               </a:solidFill>
@@ -2272,34 +2408,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.277</c:v>
+                  <c:v>0.258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.439</c:v>
+                  <c:v>0.414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.581</c:v>
+                  <c:v>0.584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.747</c:v>
+                  <c:v>0.767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.911</c:v>
+                  <c:v>0.931</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.091</c:v>
+                  <c:v>1.089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.243</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.458</c:v>
+                  <c:v>1.453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.568</c:v>
+                  <c:v>1.616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.718</c:v>
+                  <c:v>1.789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2312,6 +2448,9 @@
           <c:tx>
             <c:v>FlexLayout/Yoga</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2322,34 +2461,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.033</c:v>
+                  <c:v>0.044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.047</c:v>
+                  <c:v>0.063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.059</c:v>
+                  <c:v>0.081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.069</c:v>
+                  <c:v>0.099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.087</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.099</c:v>
+                  <c:v>0.133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.108</c:v>
+                  <c:v>0.151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.119</c:v>
+                  <c:v>0.169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.132</c:v>
+                  <c:v>0.187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.156</c:v>
+                  <c:v>0.205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,6 +2501,9 @@
           <c:tx>
             <c:v>LayoutKit</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2372,34 +2514,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.049</c:v>
+                  <c:v>0.053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.064</c:v>
+                  <c:v>0.071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.087</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.097</c:v>
+                  <c:v>0.111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.111</c:v>
+                  <c:v>0.131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.186</c:v>
+                  <c:v>0.171</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.194</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.211</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.214</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.245</c:v>
+                  <c:v>0.231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2412,6 +2554,9 @@
           <c:tx>
             <c:v>Manual layout</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2422,34 +2567,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>0.046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.062</c:v>
+                  <c:v>0.064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.067</c:v>
+                  <c:v>0.083</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.085</c:v>
+                  <c:v>0.102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.083</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.093</c:v>
+                  <c:v>0.138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.124</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.156</c:v>
+                  <c:v>0.176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.155</c:v>
+                  <c:v>0.194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.185</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,6 +2607,9 @@
           <c:tx>
             <c:v>PinLayout</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2472,34 +2620,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.032</c:v>
+                  <c:v>0.041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.042</c:v>
+                  <c:v>0.055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.051</c:v>
+                  <c:v>0.071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.056</c:v>
+                  <c:v>0.086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.065</c:v>
+                  <c:v>0.101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.078</c:v>
+                  <c:v>0.117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.087</c:v>
+                  <c:v>0.134</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>0.148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.112</c:v>
+                  <c:v>0.164</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.116</c:v>
+                  <c:v>0.179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,6 +2660,9 @@
           <c:tx>
             <c:v>UIStackView</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2521,6 +2672,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2543,11 +2724,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2051556504"/>
-        <c:axId val="-2051550424"/>
+        <c:axId val="-2045829208"/>
+        <c:axId val="-2046637992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2051556504"/>
+        <c:axId val="-2045829208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,7 +2812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051550424"/>
+        <c:crossAx val="-2046637992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2639,7 +2820,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2051550424"/>
+        <c:axId val="-2046637992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051556504"/>
+        <c:crossAx val="-2045829208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2755,7 +2936,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="558ED5"/>
           </a:solidFill>
@@ -2788,16 +2969,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2900,13 +3081,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -3256,8 +3437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5024,8 +5205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="L9" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6792,7 +6973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -8556,29 +8739,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:I50"/>
+    <sheetView topLeftCell="L12" workbookViewId="0">
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1">
-        <v>3.61</v>
+        <v>3.87</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0.27700000000000002</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -8601,13 +8784,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>2.2799999999999998</v>
+        <v>2.41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.439</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -8630,13 +8813,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.58099999999999996</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -8659,13 +8842,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.747</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -8688,13 +8871,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.91100000000000003</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -8723,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.091</v>
+        <v>1.089</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -8746,13 +8929,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.2430000000000001</v>
+        <v>1.27</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -8781,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.458</v>
+        <v>1.4530000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -8804,13 +8987,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.5680000000000001</v>
+        <v>1.6160000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -8833,13 +9016,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.718</v>
+        <v>1.7889999999999999</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -8862,19 +9045,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>29.95</v>
+        <v>22.54</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.3000000000000002E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -8891,19 +9074,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>21.25</v>
+        <v>15.89</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.7E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -8920,19 +9103,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>17.07</v>
+        <v>12.35</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.8999999999999997E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
@@ -8949,19 +9132,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>14.5</v>
+        <v>10.14</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.9000000000000006E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
@@ -8978,19 +9161,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>11.52</v>
+        <v>8.73</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.6999999999999994E-2</v>
+        <v>0.115</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -9007,19 +9190,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>10.06</v>
+        <v>7.53</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.9000000000000005E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
@@ -9036,19 +9219,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>9.27</v>
+        <v>6.62</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.108</v>
+        <v>0.151</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -9065,19 +9248,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>8.3800000000000008</v>
+        <v>5.92</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.11899999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -9094,19 +9277,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>7.57</v>
+        <v>5.35</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.13200000000000001</v>
+        <v>0.187</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -9123,19 +9306,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>6.41</v>
+        <v>4.88</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.156</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
@@ -9152,19 +9335,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>20.41</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.9000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
@@ -9181,19 +9364,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>15.66</v>
+        <v>14.15</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.4000000000000001E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
         <v>2</v>
@@ -9210,13 +9393,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>11.5</v>
+        <v>11.06</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.6999999999999994E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -9239,19 +9422,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>10.27</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.7000000000000003E-2</v>
+        <v>0.111</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>2</v>
@@ -9268,19 +9451,19 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>8.98</v>
+        <v>7.61</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.111</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
         <v>2</v>
@@ -9297,19 +9480,19 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>7.12</v>
+        <v>6.58</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.14000000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
         <v>2</v>
@@ -9326,13 +9509,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>5.37</v>
+        <v>5.83</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.186</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -9355,19 +9538,19 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>4.74</v>
+        <v>5.17</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.21099999999999999</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
         <v>2</v>
@@ -9384,13 +9567,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>4.67</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.214</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -9413,13 +9596,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>4.09</v>
+        <v>4.32</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.245</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -9442,19 +9625,19 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>24.82</v>
+        <v>21.73</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.04</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
         <v>2</v>
@@ -9471,19 +9654,19 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>16.03</v>
+        <v>15.6</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>6.2E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
         <v>2</v>
@@ -9500,19 +9683,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>14.92</v>
+        <v>12.02</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>6.7000000000000004E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
         <v>2</v>
@@ -9529,19 +9712,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>11.72</v>
+        <v>9.76</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>8.5000000000000006E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
         <v>2</v>
@@ -9558,19 +9741,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>12.07</v>
+        <v>7.95</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>8.3000000000000004E-2</v>
+        <v>0.126</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
         <v>2</v>
@@ -9587,19 +9770,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>10.77</v>
+        <v>7.23</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>9.2999999999999999E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
         <v>2</v>
@@ -9616,19 +9799,19 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>8.08</v>
+        <v>6.37</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.124</v>
+        <v>0.157</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
         <v>2</v>
@@ -9645,19 +9828,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>6.42</v>
+        <v>5.69</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0.156</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
         <v>2</v>
@@ -9674,19 +9857,19 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>6.44</v>
+        <v>5.16</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0.155</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
         <v>2</v>
@@ -9703,19 +9886,19 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>5.39</v>
+        <v>4.67</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0.185</v>
+        <v>0.214</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
         <v>2</v>
@@ -9732,19 +9915,19 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>31.16</v>
+        <v>24.49</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>3.2000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
         <v>2</v>
@@ -9761,19 +9944,19 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>23.74</v>
+        <v>18.09</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>4.2000000000000003E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
         <v>2</v>
@@ -9790,19 +9973,19 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>19.48</v>
+        <v>14.11</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>5.0999999999999997E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
         <v>2</v>
@@ -9819,19 +10002,19 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>17.84</v>
+        <v>11.63</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>5.6000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
         <v>2</v>
@@ -9848,19 +10031,19 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>15.47</v>
+        <v>9.86</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>6.5000000000000002E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
         <v>2</v>
@@ -9877,19 +10060,19 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>12.86</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>7.8E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
         <v>2</v>
@@ -9906,19 +10089,19 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>11.49</v>
+        <v>7.45</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>8.6999999999999994E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
         <v>2</v>
@@ -9935,19 +10118,19 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>10.029999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0.1</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
         <v>2</v>
@@ -9964,19 +10147,19 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>8.9</v>
+        <v>6.1</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0.112</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
         <v>2</v>
@@ -9993,19 +10176,19 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>8.6300000000000008</v>
+        <v>5.58</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0.11600000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
         <v>2</v>
@@ -10018,6 +10201,296 @@
       </c>
       <c r="I50" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>2.5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>1.61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0.622</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>1.17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>0.9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>1.105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>0.75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1.325</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>0.64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1.556</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>60</v>
+      </c>
+      <c r="H56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1.796</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>0.49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>0.44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>90</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>0.4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs_markdown/benchmark.xlsx
+++ b/docs_markdown/benchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="41320" yWindow="-3860" windowWidth="32820" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="44660" yWindow="-3900" windowWidth="32820" windowHeight="16500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="iPhone7" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="10">
   <si>
     <t>ops/s</t>
   </si>
@@ -34,24 +34,6 @@
   </si>
   <si>
     <t>subviews</t>
-  </si>
-  <si>
-    <t>Auto Layout UICollectionView feed</t>
-  </si>
-  <si>
-    <t>FlexLayout UICollectionView Layout feed</t>
-  </si>
-  <si>
-    <t>LayoutKit UICollectionView feed</t>
-  </si>
-  <si>
-    <t>Manual Layout UICollectionView feed</t>
-  </si>
-  <si>
-    <t>PinLayout UICollectionView Layout feed</t>
-  </si>
-  <si>
-    <t>UIStackView UICollectionView feed</t>
   </si>
   <si>
     <t>Auto Layout</t>
@@ -706,11 +688,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2045874312"/>
-        <c:axId val="-2045872280"/>
+        <c:axId val="-2036897128"/>
+        <c:axId val="-2043345640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2045874312"/>
+        <c:axId val="-2036897128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,7 +776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045872280"/>
+        <c:crossAx val="-2043345640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -802,7 +784,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2045872280"/>
+        <c:axId val="-2043345640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,7 +881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045874312"/>
+        <c:crossAx val="-2036897128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1064,10 +1046,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.085</c:v>
+                  <c:v>0.083</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.118</c:v>
@@ -1076,22 +1058,22 @@
                   <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19</c:v>
+                  <c:v>0.186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.227</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26</c:v>
+                  <c:v>0.256</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.297</c:v>
+                  <c:v>0.291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.333</c:v>
+                  <c:v>0.327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.368</c:v>
+                  <c:v>0.361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,34 +1099,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.007</c:v>
+                  <c:v>0.011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.007</c:v>
+                  <c:v>0.013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.008</c:v>
+                  <c:v>0.016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.009</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.009</c:v>
+                  <c:v>0.024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.028</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>0.032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.011</c:v>
+                  <c:v>0.035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.012</c:v>
+                  <c:v>0.039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.012</c:v>
+                  <c:v>0.042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,10 +1158,10 @@
                   <c:v>0.014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.018</c:v>
+                  <c:v>0.017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.022</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.025</c:v>
@@ -1188,7 +1170,7 @@
                   <c:v>0.029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.033</c:v>
+                  <c:v>0.032</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.036</c:v>
@@ -1229,19 +1211,19 @@
                   <c:v>0.012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.016</c:v>
+                  <c:v>0.015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.019</c:v>
+                  <c:v>0.018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.022</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.025</c:v>
+                  <c:v>0.024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.028</c:v>
+                  <c:v>0.027</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.031</c:v>
@@ -1279,7 +1261,7 @@
                   <c:v>0.009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.011</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.013</c:v>
@@ -1300,7 +1282,7 @@
                   <c:v>0.027</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.03</c:v>
+                  <c:v>0.029</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.032</c:v>
@@ -1329,34 +1311,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.089</c:v>
+                  <c:v>0.087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.122</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.168</c:v>
+                  <c:v>0.165</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26</c:v>
+                  <c:v>0.257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.306</c:v>
+                  <c:v>0.302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.354</c:v>
+                  <c:v>0.347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.399</c:v>
+                  <c:v>0.397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.447</c:v>
+                  <c:v>0.441</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.493</c:v>
+                  <c:v>0.485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,11 +1362,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2046050552"/>
-        <c:axId val="-2046651816"/>
+        <c:axId val="-2046082264"/>
+        <c:axId val="-2132689224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2046050552"/>
+        <c:axId val="-2046082264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046651816"/>
+        <c:crossAx val="-2132689224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1476,7 +1458,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2046651816"/>
+        <c:axId val="-2132689224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,7 +1555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046050552"/>
+        <c:crossAx val="-2046082264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2052,11 +2034,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2046546568"/>
-        <c:axId val="-2046729640"/>
+        <c:axId val="-2037634216"/>
+        <c:axId val="-2045924056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2046546568"/>
+        <c:axId val="-2037634216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046729640"/>
+        <c:crossAx val="-2045924056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2148,7 +2130,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2046729640"/>
+        <c:axId val="-2045924056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046546568"/>
+        <c:crossAx val="-2037634216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2260,7 +2242,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2724,11 +2705,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2045829208"/>
-        <c:axId val="-2046637992"/>
+        <c:axId val="-2132734824"/>
+        <c:axId val="-2132670104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2045829208"/>
+        <c:axId val="-2132734824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,7 +2793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046637992"/>
+        <c:crossAx val="-2132670104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2820,7 +2801,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2046637992"/>
+        <c:axId val="-2132670104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,7 +2898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045829208"/>
+        <c:crossAx val="-2132734824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2932,7 +2913,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3437,7 +3417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
+    <sheetView topLeftCell="L4" workbookViewId="0">
       <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
@@ -3475,7 +3455,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3504,7 +3484,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3533,7 +3513,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3562,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3591,7 +3571,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3620,7 +3600,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3649,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3678,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3707,7 +3687,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3736,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3765,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3794,7 +3774,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3823,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3852,7 +3832,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3881,7 +3861,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3910,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3939,7 +3919,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3968,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3997,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4026,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4055,7 +4035,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4084,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4113,7 +4093,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4142,7 +4122,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4171,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4200,7 +4180,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4229,7 +4209,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4258,7 +4238,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4287,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4316,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4345,7 +4325,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4374,7 +4354,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4403,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4432,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4461,7 +4441,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4490,7 +4470,7 @@
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4519,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4548,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4577,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4606,7 +4586,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4635,7 +4615,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4664,7 +4644,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4693,7 +4673,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4722,7 +4702,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4751,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4780,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4809,7 +4789,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4838,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4867,7 +4847,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4896,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4925,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4954,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4983,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -5012,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5041,7 +5021,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5070,7 +5050,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -5099,7 +5079,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -5128,7 +5108,7 @@
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5157,7 +5137,7 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5186,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5205,8 +5185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="L9" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5219,13 +5199,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1">
-        <v>16.79</v>
+        <v>16.88</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>0.06</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -5248,19 +5228,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>11.83</v>
+        <v>12.06</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.5000000000000006E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -5277,7 +5257,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>8.44</v>
+        <v>8.51</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -5335,13 +5315,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>5.26</v>
+        <v>5.38</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.19</v>
+        <v>0.186</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -5364,13 +5344,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.22700000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -5393,13 +5373,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>3.85</v>
+        <v>3.91</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.26</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -5422,13 +5402,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>3.37</v>
+        <v>3.44</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.29699999999999999</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -5451,13 +5431,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>3.01</v>
+        <v>3.06</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.33300000000000002</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -5480,13 +5460,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.36799999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -5509,19 +5489,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>134.25</v>
+        <v>93.67</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -5538,19 +5518,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>139.22999999999999</v>
+        <v>78.25</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -5567,19 +5547,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>125.82</v>
+        <v>60.74</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
@@ -5596,19 +5576,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>116.32</v>
+        <v>49.25</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.9999999999999993E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
@@ -5625,19 +5605,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>108.41</v>
+        <v>41.6</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.9999999999999993E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -5654,19 +5634,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>103.17</v>
+        <v>35.83</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
@@ -5683,19 +5663,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>97.36</v>
+        <v>31.61</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -5712,19 +5692,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>90.52</v>
+        <v>28.56</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1.0999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -5741,19 +5721,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>84.8</v>
+        <v>25.7</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.2E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -5770,19 +5750,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>80.319999999999993</v>
+        <v>23.68</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.2E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
@@ -5799,7 +5779,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>80.37</v>
+        <v>83.95</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -5811,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
@@ -5828,7 +5808,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>70.87</v>
+        <v>72.989999999999995</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -5840,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
         <v>2</v>
@@ -5857,19 +5837,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>55.77</v>
+        <v>57.29</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
         <v>2</v>
@@ -5886,19 +5866,19 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>45.44</v>
+        <v>47.26</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
         <v>2</v>
@@ -5915,7 +5895,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>39.24</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -5927,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
         <v>2</v>
@@ -5944,7 +5924,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>34.19</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -5973,13 +5953,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>30.09</v>
+        <v>30.82</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>3.3000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -6002,7 +5982,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>27.66</v>
+        <v>27.71</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -6031,7 +6011,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>24.91</v>
+        <v>25.07</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -6043,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
         <v>2</v>
@@ -6060,7 +6040,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>22.77</v>
+        <v>22.9</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -6089,7 +6069,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>98.35</v>
+        <v>102.17</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -6101,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
         <v>2</v>
@@ -6118,7 +6098,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>82.76</v>
+        <v>85.08</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -6130,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
         <v>2</v>
@@ -6147,19 +6127,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>64.34</v>
+        <v>67.56</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
         <v>2</v>
@@ -6176,19 +6156,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>53.89</v>
+        <v>55.99</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
         <v>2</v>
@@ -6205,19 +6185,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>45.61</v>
+        <v>47.61</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
         <v>2</v>
@@ -6234,19 +6214,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>40.58</v>
+        <v>41.34</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
         <v>2</v>
@@ -6263,13 +6243,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>36.299999999999997</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -6292,7 +6272,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>32.700000000000003</v>
+        <v>32.78</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -6321,7 +6301,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>29.58</v>
+        <v>29.82</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -6350,7 +6330,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>26.88</v>
+        <v>27.31</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -6362,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
         <v>2</v>
@@ -6379,7 +6359,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>108.67</v>
+        <v>110.47</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -6391,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F41" t="s">
         <v>2</v>
@@ -6408,19 +6388,19 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>93.88</v>
+        <v>95.94</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
         <v>2</v>
@@ -6437,7 +6417,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>74.650000000000006</v>
+        <v>76.17</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -6449,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
         <v>2</v>
@@ -6466,7 +6446,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>62.23</v>
+        <v>62.97</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -6495,7 +6475,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>53.38</v>
+        <v>53.99</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -6524,7 +6504,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>46.61</v>
+        <v>47.07</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -6536,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
         <v>2</v>
@@ -6553,7 +6533,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>41.48</v>
+        <v>41.38</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -6582,7 +6562,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>37.1</v>
+        <v>37.72</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -6611,19 +6591,19 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>33.42</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0.03</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
         <v>2</v>
@@ -6640,7 +6620,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>31.08</v>
+        <v>31.26</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -6669,13 +6649,13 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>11.24</v>
+        <v>11.49</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>8.8999999999999996E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -6698,13 +6678,13 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>8.19</v>
+        <v>8.33</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0.122</v>
+        <v>0.12</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
@@ -6727,19 +6707,19 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>5.94</v>
+        <v>6.04</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0.16800000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
         <v>2</v>
@@ -6756,7 +6736,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>4.63</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -6785,13 +6765,13 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0.26</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -6814,13 +6794,13 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>3.27</v>
+        <v>3.32</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0.30599999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -6843,13 +6823,13 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.35399999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -6872,13 +6852,13 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>2.5099999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0.39900000000000002</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -6901,13 +6881,13 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>2.2400000000000002</v>
+        <v>2.27</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0.44700000000000001</v>
+        <v>0.441</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -6930,13 +6910,13 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>2.0299999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0.49299999999999999</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -7011,7 +6991,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7040,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7069,7 +7049,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7098,7 +7078,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7127,7 +7107,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7156,7 +7136,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7185,7 +7165,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7214,7 +7194,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7243,7 +7223,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7272,7 +7252,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7301,7 +7281,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7330,7 +7310,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7359,7 +7339,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7388,7 +7368,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7417,7 +7397,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7446,7 +7426,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -7475,7 +7455,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -7504,7 +7484,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -7533,7 +7513,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7562,7 +7542,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -7591,7 +7571,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -7620,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -7649,7 +7629,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -7678,7 +7658,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -7707,7 +7687,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -7736,7 +7716,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -7765,7 +7745,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -7794,7 +7774,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -7823,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7852,7 +7832,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7881,7 +7861,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7910,7 +7890,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7939,7 +7919,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7968,7 +7948,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7997,7 +7977,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -8026,7 +8006,7 @@
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -8055,7 +8035,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -8084,7 +8064,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -8113,7 +8093,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -8142,7 +8122,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -8171,7 +8151,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -8200,7 +8180,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -8229,7 +8209,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -8258,7 +8238,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -8287,7 +8267,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -8316,7 +8296,7 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -8345,7 +8325,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -8374,7 +8354,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -8403,7 +8383,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -8432,7 +8412,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -8461,7 +8441,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -8490,7 +8470,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -8519,7 +8499,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -8548,7 +8528,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -8577,7 +8557,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -8606,7 +8586,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -8635,7 +8615,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -8664,7 +8644,7 @@
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -8693,7 +8673,7 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -8722,7 +8702,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -8779,7 +8759,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -8808,7 +8788,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8837,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8866,7 +8846,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8895,7 +8875,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8924,7 +8904,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8953,7 +8933,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8982,7 +8962,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9011,7 +8991,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9040,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9069,7 +9049,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9098,7 +9078,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9127,7 +9107,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9156,7 +9136,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9185,7 +9165,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9214,7 +9194,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9243,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9272,7 +9252,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9301,7 +9281,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -9330,7 +9310,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -9359,7 +9339,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -9388,7 +9368,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -9417,7 +9397,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -9446,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -9475,7 +9455,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -9504,7 +9484,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -9533,7 +9513,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -9562,7 +9542,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -9591,7 +9571,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -9620,7 +9600,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -9649,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -9678,7 +9658,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -9707,7 +9687,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -9736,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -9765,7 +9745,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -9794,7 +9774,7 @@
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -9823,7 +9803,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -9852,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -9881,7 +9861,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -9910,7 +9890,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -9939,7 +9919,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -9968,7 +9948,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -9997,7 +9977,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -10026,7 +10006,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -10055,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -10084,7 +10064,7 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -10113,7 +10093,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -10142,7 +10122,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -10171,7 +10151,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -10200,7 +10180,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -10229,7 +10209,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -10258,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -10287,7 +10267,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -10316,7 +10296,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -10345,7 +10325,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -10374,7 +10354,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -10403,7 +10383,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -10432,7 +10412,7 @@
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -10461,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -10490,7 +10470,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs_markdown/benchmark.xlsx
+++ b/docs_markdown/benchmark.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="11">
   <si>
     <t xml:space="preserve">ops/s</t>
   </si>
@@ -55,6 +55,9 @@
   <si>
     <t xml:space="preserve">UIStackView</t>
   </si>
+  <si>
+    <t xml:space="preserve">StackViewLayout</t>
+  </si>
 </sst>
 </file>
 
@@ -63,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -104,6 +107,11 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -216,7 +224,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF31859C"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF314004"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -226,7 +234,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -271,8 +279,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.44050922714028"/>
-          <c:y val="0.0086114676936243"/>
+          <c:x val="0.440522831667117"/>
+          <c:y val="0.0086654185611126"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -284,10 +292,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.158144859164701"/>
-          <c:y val="0.095849379546427"/>
-          <c:w val="0.665429443596503"/>
-          <c:h val="0.765297389816003"/>
+          <c:x val="0.158132937044042"/>
+          <c:y val="0.0958545065525542"/>
+          <c:w val="0.665394487976223"/>
+          <c:h val="0.765231345279486"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -997,11 +1005,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="62060028"/>
-        <c:axId val="1622917"/>
+        <c:axId val="16538882"/>
+        <c:axId val="65452979"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62060028"/>
+        <c:axId val="16538882"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,8 +1055,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.331171083668655"/>
-              <c:y val="0.911692340607617"/>
+              <c:x val="0.331160497162929"/>
+              <c:y val="0.911687617009896"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1083,14 +1091,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1622917"/>
+        <c:crossAx val="65452979"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1622917"/>
+        <c:axId val="65452979"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,8 +1157,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00915776328569446"/>
-              <c:y val="0.395325203252033"/>
+              <c:x val="0.00915293164009727"/>
+              <c:y val="0.395292859053223"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1185,7 +1193,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62060028"/>
+        <c:crossAx val="16538882"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1231,7 +1239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1276,8 +1284,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.440492859143097"/>
-          <c:y val="0.00861100711344066"/>
+          <c:x val="0.440507019217664"/>
+          <c:y val="0.00866495507060334"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1289,10 +1297,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.158148977877345"/>
-          <c:y val="0.0958442530887308"/>
-          <c:w val="0.66542985158219"/>
-          <c:h val="0.765309942771568"/>
+          <c:x val="0.158136840670574"/>
+          <c:y val="0.095849379546427"/>
+          <c:w val="0.665394575439553"/>
+          <c:h val="0.765243902439024"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2002,11 +2010,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="42637549"/>
-        <c:axId val="58062892"/>
+        <c:axId val="2989815"/>
+        <c:axId val="71039072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42637549"/>
+        <c:axId val="2989815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,8 +2060,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.331174740968916"/>
-              <c:y val="0.911697063700059"/>
+              <c:x val="0.331163963472809"/>
+              <c:y val="0.911692340607617"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2088,14 +2096,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58062892"/>
+        <c:crossAx val="71039072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58062892"/>
+        <c:axId val="71039072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,8 +2162,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00913609633155979"/>
-              <c:y val="0.395304059474782"/>
+              <c:x val="0.00913179773749489"/>
+              <c:y val="0.395271715875053"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2190,7 +2198,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42637549"/>
+        <c:crossAx val="2989815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2231,7 +2239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2276,8 +2284,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.440492859143097"/>
-          <c:y val="0.00673940949935815"/>
+          <c:x val="0.440524401125678"/>
+          <c:y val="0.00679326023000802"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2289,10 +2297,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.158148977877345"/>
-          <c:y val="0.095849379546427"/>
-          <c:w val="0.66542985158219"/>
-          <c:h val="0.765297389816003"/>
+          <c:x val="0.158144004392889"/>
+          <c:y val="0.0958545065525542"/>
+          <c:w val="0.665419726817215"/>
+          <c:h val="0.765231345279486"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3002,11 +3010,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="87454885"/>
-        <c:axId val="42634341"/>
+        <c:axId val="41080804"/>
+        <c:axId val="54160555"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87454885"/>
+        <c:axId val="41080804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,8 +3060,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.331174740968916"/>
-              <c:y val="0.911692340607617"/>
+              <c:x val="0.331148328643009"/>
+              <c:y val="0.911687617009896"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3088,14 +3096,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42634341"/>
+        <c:crossAx val="54160555"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42634341"/>
+        <c:axId val="54160555"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3154,8 +3162,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00913609633155979"/>
-              <c:y val="0.395325203252033"/>
+              <c:x val="0.00912897247580479"/>
+              <c:y val="0.395292859053223"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3190,7 +3198,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87454885"/>
+        <c:crossAx val="41080804"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3232,7 +3240,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3277,8 +3285,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.440492859143097"/>
-          <c:y val="0.00673940949935815"/>
+          <c:x val="0.440524401125678"/>
+          <c:y val="0.00679326023000802"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3290,10 +3298,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.158148977877345"/>
-          <c:y val="0.095849379546427"/>
-          <c:w val="0.66542985158219"/>
-          <c:h val="0.765297389816003"/>
+          <c:x val="0.158144004392889"/>
+          <c:y val="0.0958545065525542"/>
+          <c:w val="0.665419726817215"/>
+          <c:h val="0.765231345279486"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4003,11 +4011,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="92814570"/>
-        <c:axId val="15820194"/>
+        <c:axId val="38875784"/>
+        <c:axId val="93511597"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92814570"/>
+        <c:axId val="38875784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4053,8 +4061,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.331174740968916"/>
-              <c:y val="0.911692340607617"/>
+              <c:x val="0.331148328643009"/>
+              <c:y val="0.911687617009896"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4089,14 +4097,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15820194"/>
+        <c:crossAx val="93511597"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15820194"/>
+        <c:axId val="93511597"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4155,8 +4163,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00913609633155979"/>
-              <c:y val="0.395325203252033"/>
+              <c:x val="0.00912897247580479"/>
+              <c:y val="0.395292859053223"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4191,7 +4199,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92814570"/>
+        <c:crossAx val="38875784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4233,7 +4241,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4278,8 +4286,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.440578604134869"/>
-          <c:y val="0.00871844244758237"/>
+          <c:x val="0.44061757719715"/>
+          <c:y val="0.00882588927520728"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4291,10 +4299,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.158144859164701"/>
-          <c:y val="0.095849379546427"/>
-          <c:w val="0.665429443596503"/>
-          <c:h val="0.765243902439024"/>
+          <c:x val="0.158126908720733"/>
+          <c:y val="0.0958545065525542"/>
+          <c:w val="0.665422463522226"/>
+          <c:h val="0.765177855041455"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4305,11 +4313,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>"Auto layout"</c:f>
+              <c:f>Sheet5!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Auto layout</c:v>
+                  <c:v>Auto Layout</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4337,44 +4345,6 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>iPhone7!$G$1:$G$10</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet5!$B$1:$K$1</c:f>
@@ -4382,34 +4352,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0323747857924431</c:v>
+                  <c:v>0.0355373744306893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0517361164093018</c:v>
+                  <c:v>0.0577244030104743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0724850722721645</c:v>
+                  <c:v>0.073640057018825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0930781039324674</c:v>
+                  <c:v>0.0955658175728538</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.113174584176805</c:v>
+                  <c:v>0.117343796624078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.132333770394325</c:v>
+                  <c:v>0.139646649360657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.154213973454067</c:v>
+                  <c:v>0.16762234767278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.175333678722382</c:v>
+                  <c:v>0.184585809707642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.193892995516459</c:v>
+                  <c:v>0.208504605293274</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.219055366516113</c:v>
+                  <c:v>0.230727028846741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4421,11 +4391,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>"FlexLayout/Yoga"</c:f>
+              <c:f>Sheet5!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FlexLayout/Yoga</c:v>
+                  <c:v>FlexLayout</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4453,44 +4423,6 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>iPhone7!$G$1:$G$10</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet5!$B$2:$K$2</c:f>
@@ -4498,34 +4430,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0175216999547235</c:v>
+                  <c:v>0.016593765039913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0199316062179266</c:v>
+                  <c:v>0.0198653515647439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.023387351701426</c:v>
+                  <c:v>0.0124955502423373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0261186666977711</c:v>
+                  <c:v>0.026259883856162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0287741354533604</c:v>
+                  <c:v>0.0293153149741037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0313290469348431</c:v>
+                  <c:v>0.0322139672935009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0344392418861389</c:v>
+                  <c:v>0.035264097411057</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0371854128660979</c:v>
+                  <c:v>0.0383027350461041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0402366352081299</c:v>
+                  <c:v>0.0413186740875244</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0433755218982697</c:v>
+                  <c:v>0.0469577258283442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4537,7 +4469,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>"LayoutKit"</c:f>
+              <c:f>Sheet5!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4569,44 +4501,6 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>iPhone7!$G$1:$G$10</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet5!$B$3:$K$3</c:f>
@@ -4614,34 +4508,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0110471104527568</c:v>
+                  <c:v>0.0109111109505529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0133883349100749</c:v>
+                  <c:v>0.0133446153004964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0157106779515743</c:v>
+                  <c:v>0.0171851800322533</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0184987176548351</c:v>
+                  <c:v>0.0184233730489557</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0210810775558154</c:v>
+                  <c:v>0.0209342166781425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0236218640970629</c:v>
+                  <c:v>0.0236725003220314</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0263587205033553</c:v>
+                  <c:v>0.0260497637284108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0287736824580601</c:v>
+                  <c:v>0.0287632056644985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0312788970768452</c:v>
+                  <c:v>0.0310662912599968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0338480353355408</c:v>
+                  <c:v>0.0338356773058573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4653,11 +4547,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>"Manual layout"</c:f>
+              <c:f>Sheet5!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manual layout</c:v>
+                  <c:v>Manual Layout</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4685,44 +4579,6 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>iPhone7!$G$1:$G$10</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet5!$B$4:$K$4</c:f>
@@ -4730,34 +4586,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0105748778895328</c:v>
+                  <c:v>0.0105684619200857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0132009763466684</c:v>
+                  <c:v>0.0132873685736405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.016085424120464</c:v>
+                  <c:v>0.0160484238276406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0195943231766041</c:v>
+                  <c:v>0.0189045262786577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0222969108157688</c:v>
+                  <c:v>0.0217680775600931</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0251228630542755</c:v>
+                  <c:v>0.0245740413665771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0277192399308488</c:v>
+                  <c:v>0.0273538666802484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0307666316176906</c:v>
+                  <c:v>0.030363072048534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0340676347414652</c:v>
+                  <c:v>0.0328561182945005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0361796830381666</c:v>
+                  <c:v>0.035678140048323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4769,7 +4625,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>"PinLayout"</c:f>
+              <c:f>Sheet5!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4801,44 +4657,6 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>iPhone7!$G$1:$G$10</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet5!$B$5:$K$5</c:f>
@@ -4846,34 +4664,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0100530421733856</c:v>
+                  <c:v>0.0152294400966529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0117818061043234</c:v>
+                  <c:v>0.0170389858342833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0138562885049271</c:v>
+                  <c:v>0.0188624704325641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0158071909099817</c:v>
+                  <c:v>0.0208374535044034</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0177949541493466</c:v>
+                  <c:v>0.0227457989345897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0198431996738209</c:v>
+                  <c:v>0.0248038739692874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0219606316607931</c:v>
+                  <c:v>0.0267766902321263</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0235836256382077</c:v>
+                  <c:v>0.0287456239972796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0265141192235445</c:v>
+                  <c:v>0.0308078563574589</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0279584692584144</c:v>
+                  <c:v>0.0329545544039819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4885,7 +4703,85 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>"UIStackView"</c:f>
+              <c:f>Sheet5!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StackViewLayout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.016570972614601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.019703371852052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0233105282450831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0265714996739438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0297795008210575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0333449186817292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0364424841744559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0396687663518465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0428492873907089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0462111830711365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4917,79 +4813,41 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>iPhone7!$G$1:$G$10</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$6:$K$6</c:f>
+              <c:f>Sheet5!$B$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0477546396709624</c:v>
+                  <c:v>0.0568864014413622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0765584962708609</c:v>
+                  <c:v>0.0826971530914307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.105168890953064</c:v>
+                  <c:v>0.113662666744656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.134548395872116</c:v>
+                  <c:v>0.143878408840724</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.163367288453238</c:v>
+                  <c:v>0.174390852451324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.191392143567403</c:v>
+                  <c:v>0.201496624946594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.222355628013611</c:v>
+                  <c:v>0.229184818267822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.248706412315369</c:v>
+                  <c:v>0.260897207260132</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.278594398498535</c:v>
+                  <c:v>0.288336992263794</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.308193588256836</c:v>
+                  <c:v>0.319307994842529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5004,11 +4862,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="20605600"/>
-        <c:axId val="89888373"/>
+        <c:axId val="48542839"/>
+        <c:axId val="97361355"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20605600"/>
+        <c:axId val="48542839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5054,8 +4912,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.331171083668655"/>
-              <c:y val="0.911799315361575"/>
+              <c:x val="0.331150322361724"/>
+              <c:y val="0.91184808772399"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5090,14 +4948,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89888373"/>
+        <c:crossAx val="97361355"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89888373"/>
+        <c:axId val="97361355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5156,8 +5014,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00915776328569446"/>
-              <c:y val="0.395325203252033"/>
+              <c:x val="0.00916185951815406"/>
+              <c:y val="0.395292859053223"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5192,7 +5050,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20605600"/>
+        <c:crossAx val="48542839"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5249,9 +5107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5259,8 +5117,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12850920" y="158400"/>
-        <a:ext cx="10377720" cy="6730200"/>
+        <a:off x="13112640" y="158400"/>
+        <a:ext cx="10658520" cy="6729840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5284,9 +5142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>291600</xdr:colOff>
+      <xdr:colOff>291240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5294,8 +5152,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12944160" y="217800"/>
-        <a:ext cx="10284120" cy="6730560"/>
+        <a:off x="13205880" y="217800"/>
+        <a:ext cx="10564920" cy="6730200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5319,9 +5177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>393480</xdr:colOff>
+      <xdr:colOff>393120</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5329,8 +5187,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13046040" y="0"/>
-        <a:ext cx="10284120" cy="6730200"/>
+        <a:off x="13383360" y="0"/>
+        <a:ext cx="10489320" cy="6729840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5354,9 +5212,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>329760</xdr:colOff>
+      <xdr:colOff>329400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5364,8 +5222,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10506960" y="0"/>
-        <a:ext cx="10284120" cy="6730200"/>
+        <a:off x="10761120" y="0"/>
+        <a:ext cx="10489320" cy="6729840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5383,15 +5241,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>208800</xdr:colOff>
+      <xdr:colOff>361440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>172440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5399,8 +5257,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9902520" y="87120"/>
-        <a:ext cx="10377720" cy="6730200"/>
+        <a:off x="10277280" y="77760"/>
+        <a:ext cx="10608840" cy="6729840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5426,12 +5284,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0798122065728"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.3286384976526"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.23474178403756"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="10.830985915493"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.3380281690141"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.830985915493"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5211267605634"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0798122065728"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.34272300469484"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.056338028169"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.3192488262911"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.056338028169"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7199,12 +7057,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0798122065728"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.3286384976526"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.23474178403756"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="10.830985915493"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.3380281690141"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.830985915493"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5211267605634"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0798122065728"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.34272300469484"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.056338028169"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.3192488262911"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.056338028169"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9012,12 +8870,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0798122065728"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.3286384976526"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.23474178403756"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="10.830985915493"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.3380281690141"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.830985915493"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5211267605634"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0798122065728"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.34272300469484"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.056338028169"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.3192488262911"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.056338028169"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10785,12 +10643,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0798122065728"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0516431924883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.23474178403756"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="10.830985915493"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.3380281690141"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.830985915493"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5211267605634"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7136150234742"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.34272300469484"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.056338028169"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.3192488262911"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.056338028169"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12550,16 +12408,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4225352112676"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6009389671362"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.830985915493"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12567,34 +12425,34 @@
         <v>4</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0.0323747857924431</v>
+        <v>0.0355373744306893</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>0.0517361164093018</v>
+        <v>0.0577244030104743</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0.0724850722721645</v>
+        <v>0.073640057018825</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>0.0930781039324674</v>
+        <v>0.0955658175728538</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>0.113174584176805</v>
+        <v>0.117343796624078</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.132333770394325</v>
+        <v>0.139646649360657</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0.154213973454067</v>
+        <v>0.16762234767278</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>0.175333678722382</v>
+        <v>0.184585809707642</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>0.193892995516459</v>
+        <v>0.208504605293274</v>
       </c>
       <c r="K1" s="0" t="n">
-        <v>0.219055366516113</v>
+        <v>0.230727028846741</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12602,34 +12460,34 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.0175216999547235</v>
+        <v>0.016593765039913</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.0199316062179266</v>
+        <v>0.0198653515647439</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.023387351701426</v>
+        <v>0.0124955502423373</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.0261186666977711</v>
+        <v>0.026259883856162</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.0287741354533604</v>
+        <v>0.0293153149741037</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.0313290469348431</v>
+        <v>0.0322139672935009</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.0344392418861389</v>
+        <v>0.035264097411057</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.0371854128660979</v>
+        <v>0.0383027350461041</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.0402366352081299</v>
+        <v>0.0413186740875244</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.0433755218982697</v>
+        <v>0.0469577258283442</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12637,34 +12495,34 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.0110471104527568</v>
+        <v>0.0109111109505529</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.0133883349100749</v>
+        <v>0.0133446153004964</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.0157106779515743</v>
+        <v>0.0171851800322533</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.0184987176548351</v>
+        <v>0.0184233730489557</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.0210810775558154</v>
+        <v>0.0209342166781425</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.0236218640970629</v>
+        <v>0.0236725003220314</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.0263587205033553</v>
+        <v>0.0260497637284108</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.0287736824580601</v>
+        <v>0.0287632056644985</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.0312788970768452</v>
+        <v>0.0310662912599968</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.0338480353355408</v>
+        <v>0.0338356773058573</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12672,34 +12530,34 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0105748778895328</v>
+        <v>0.0105684619200857</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.0132009763466684</v>
+        <v>0.0132873685736405</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.016085424120464</v>
+        <v>0.0160484238276406</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.0195943231766041</v>
+        <v>0.0189045262786577</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.0222969108157688</v>
+        <v>0.0217680775600931</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.0251228630542755</v>
+        <v>0.0245740413665771</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.0277192399308488</v>
+        <v>0.0273538666802484</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.0307666316176906</v>
+        <v>0.030363072048534</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.0340676347414652</v>
+        <v>0.0328561182945005</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.0361796830381666</v>
+        <v>0.035678140048323</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12707,69 +12565,104 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.0100530421733856</v>
+        <v>0.0152294400966529</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.0117818061043234</v>
+        <v>0.0170389858342833</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.0138562885049271</v>
+        <v>0.0188624704325641</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.0158071909099817</v>
+        <v>0.0208374535044034</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.0177949541493466</v>
+        <v>0.0227457989345897</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.0198431996738209</v>
+        <v>0.0248038739692874</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.0219606316607931</v>
+        <v>0.0267766902321263</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.0235836256382077</v>
+        <v>0.0287456239972796</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.0265141192235445</v>
+        <v>0.0308078563574589</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.0279584692584144</v>
+        <v>0.0329545544039819</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.016570972614601</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.019703371852052</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.0233105282450831</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.0265714996739438</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.0297795008210575</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.0333449186817292</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.0364424841744559</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.0396687663518465</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.0428492873907089</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.0462111830711365</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.0477546396709624</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.0765584962708609</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.105168890953064</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.134548395872116</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.163367288453238</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.191392143567403</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.222355628013611</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0.248706412315369</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0.278594398498535</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>0.308193588256836</v>
+      <c r="B7" s="0" t="n">
+        <v>0.0568864014413622</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.0826971530914307</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.113662666744656</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.143878408840724</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.174390852451324</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.201496624946594</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.229184818267822</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.260897207260132</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.288336992263794</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.319307994842529</v>
       </c>
     </row>
   </sheetData>
